--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1708.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1708.xlsx
@@ -354,7 +354,7 @@
         <v>1.05683035114699</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.56926519403584</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1708.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1708.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.2690644933123215</v>
+        <v>0.7828204035758972</v>
       </c>
       <c r="B1">
-        <v>1.05683035114699</v>
+        <v>2.239025115966797</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>2.56926519403584</v>
+        <v>0.9308872818946838</v>
       </c>
       <c r="E1">
-        <v>1.734692893755649</v>
+        <v>0.636476993560791</v>
       </c>
     </row>
   </sheetData>
